--- a/Translator/excel/Missing_in_Italian.xlsx
+++ b/Translator/excel/Missing_in_Italian.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>German</t>
   </si>
   <si>
     <t>Italian</t>
@@ -60,15 +54,6 @@
   </si>
   <si>
     <t>Load tags</t>
-  </si>
-  <si>
-    <t>Charger tags</t>
-  </si>
-  <si>
-    <t>Lade Tags</t>
-  </si>
-  <si>
-    <t>Anzahl der Frames pro Sekunde für den Aufbau des Skins. Ein höherer Wert macht die Animationen softer, ein kleinerer belastet die CPU nicht so stark.</t>
   </si>
 </sst>
 </file>
@@ -426,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -442,49 +427,34 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Translator/excel/Missing_in_Italian.xlsx
+++ b/Translator/excel/Missing_in_Italian.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>English</t>
   </si>
@@ -37,20 +37,104 @@
     <t>&lt;Settings&gt;&lt;SkinFPS&gt;</t>
   </si>
   <si>
+    <t>&lt;Config&gt;&lt;Connectdevice&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Config&gt;&lt;deck&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Config&gt;&lt;description&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Config&gt;&lt;Reconnectdevice&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Config&gt;&lt;Rescandevices&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;deckI&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;delete&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;deleteFromTag&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;deleteLyrics&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;detachImage&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;ResetTodefault&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;SamplerOutputAlldecks&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;SamplerOutputdeckI&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;SamplerOutputTriggerdeck&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Messages&gt;&lt;deletePOI&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Messages&gt;&lt;deleteSample&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Messages&gt;&lt;deleteSampleFile&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;audioAutodetect&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;automixDualdeck&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;disableBuiltIndefinitions&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;filterdefaultResonance&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;historydelay&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;loopdefault&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;loopRolldefault&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;samplerdefaultLoopMode&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;tooltipdelay&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;videodelay&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;autoMixBeatMatchOnfade&gt;</t>
+  </si>
+  <si>
     <t>get information about a saved loop: get_saved_loop 'pos', get_saved_loop 'length', get_saved_loop 'name'
-      "get_saved_loop 'next' 'name'" can be used to get information about the upcoming saved loop
-      "get_saved_loop 1 'name'" can be used to get information about the first saved loop</t>
+"get_saved_loop 'next' 'name'" can be used to get information about the upcoming saved loop
+"get_saved_loop 1 'name'" can be used to get information about the first saved loop</t>
   </si>
   <si>
     <t>Activate/deactivate named effect with a single key. Effect parameters can be specified as well.
-      'padfx "echo" 40% 90%' to start/stop the echo effect with first parameter at 40% and second parameter at 90%. When the effect is stopped, the parameters return to their original values.
-      'padfx "echo" 40% 1bt' to start/stop the echo effect with first parameter at 40% and length of 1 beat
-      'padfx "echo" 40% 90% smart_pressed' smart_pressed works as a toggle when pressing the button shortly, or as a temporary while holding the button pressed
-      'padfx "echo" 40% 90% "TRAIL:on"' after the sliders, it is possible to add strings to disable or enable switch parameters by defining their name, a colon and "on" to enable or "off" to disable
-      'padfx "echo out" 80% "solostem:vocal"' as the last parameter, you can add solostem:stemname to only let that stem be audible while applying the effect
-      'padfx "echo out" "mutestem:rhythm"' as the last parameter, you can add mutestem:stemname to mute that stem while applying the effect
-      'padfx "reverb" "stemfx:vocal"' as the last parameter, you can add stemfx:stemname to apply the effect only to that stem (other stems will continue playing normally)
-      stem names can be Vocal,HiHat,Bass,Instru,Kick,Melody,Rhythm,MeloVocal,MeloRhythm</t>
+'padfx "echo" 40% 90%' to start/stop the echo effect with first parameter at 40% and second parameter at 90%. When the effect is stopped, the parameters return to their original values.
+'padfx "echo" 40% 1bt' to start/stop the echo effect with first parameter at 40% and length of 1 beat
+'padfx "echo" 40% 90% smart_pressed' smart_pressed works as a toggle when pressing the button shortly, or as a temporary while holding the button pressed
+'padfx "echo" 40% 90% "TRAIL:on"' after the sliders, it is possible to add strings to disable or enable switch parameters by defining their name, a colon and "on" to enable or "off" to disable
+'padfx "echo out" 80% "solostem:vocal"' as the last parameter, you can add solostem:stemname to only let that stem be audible while applying the effect
+'padfx "echo out" "mutestem:rhythm"' as the last parameter, you can add mutestem:stemname to mute that stem while applying the effect
+'padfx "reverb" "stemfx:vocal"' as the last parameter, you can add stemfx:stemname to apply the effect only to that stem (other stems will continue playing normally)
+ stem names can be Vocal,HiHat,Bass,Instru,Kick,Melody,Rhythm,MeloVocal,MeloRhythm</t>
   </si>
   <si>
     <t>Load tags</t>
@@ -411,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -433,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -441,7 +525,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -449,12 +533,152 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
